--- a/sąskaitos_exl/Gabrinė Mažonaitė.xlsx
+++ b/sąskaitos_exl/Gabrinė Mažonaitė.xlsx
@@ -434,7 +434,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Serija ILO Nr. 20250401-182</t>
+          <t>Serija ILO Nr. 20250501-100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -443,7 +443,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -577,7 +577,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>edukaciniai užsiėmimai, už balandžio mėn.</t>
+          <t>edukaciniai užsiėmimai, už gegužės mėn.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -617,7 +617,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sąskaitą apmokėti iki 2025.04.15</t>
+          <t>Sąskaitą apmokėti iki 2025.05.30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
